--- a/data/trans_orig/P6710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>17481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10957</v>
+        <v>10734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28429</v>
+        <v>28217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09679440673829759</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06066936694912146</v>
+        <v>0.05943443372027302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1574175396944924</v>
+        <v>0.1562428730296322</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>18764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11643</v>
+        <v>11607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27876</v>
+        <v>27314</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1388379077666816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08614731815176621</v>
+        <v>0.08587842880311555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2062526938831804</v>
+        <v>0.2020968389924707</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -784,19 +784,19 @@
         <v>36245</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25350</v>
+        <v>26811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48241</v>
+        <v>49561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1147907046370916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0802852892213336</v>
+        <v>0.0849111198774453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1527815435381165</v>
+        <v>0.1569626520282313</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>11319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6221</v>
+        <v>5872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19576</v>
+        <v>18447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0626741402761256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03444514887553857</v>
+        <v>0.03251489799741707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1083941411107928</v>
+        <v>0.1021431150187162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -834,19 +834,19 @@
         <v>9301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4366</v>
+        <v>4287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17498</v>
+        <v>17931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0688161450751974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03230716228230953</v>
+        <v>0.03171898678918399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.129468998215492</v>
+        <v>0.1326686805893555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -855,19 +855,19 @@
         <v>20620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13125</v>
+        <v>12803</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31340</v>
+        <v>30496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06530316367703828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04156607710700679</v>
+        <v>0.04054893482303426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09925531135115788</v>
+        <v>0.09658152800389033</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>28697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19131</v>
+        <v>18744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39844</v>
+        <v>40561</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1588995595727708</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1059332356028649</v>
+        <v>0.1037866892511519</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2206249163376616</v>
+        <v>0.2245941820100023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -905,19 +905,19 @@
         <v>17878</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10486</v>
+        <v>10929</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27816</v>
+        <v>28508</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1322797744948435</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07758845902050465</v>
+        <v>0.08086466582395094</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2058083782453937</v>
+        <v>0.2109318966109617</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -926,19 +926,19 @@
         <v>46575</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34818</v>
+        <v>34592</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61417</v>
+        <v>60849</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1475052282124772</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1102697650692925</v>
+        <v>0.1095562142455604</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.194511196582848</v>
+        <v>0.1927125868053755</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>33471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24199</v>
+        <v>24716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44308</v>
+        <v>44839</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1853358594563897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1339947263830304</v>
+        <v>0.1368561314772546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2453434204700727</v>
+        <v>0.2482837011898562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -976,19 +976,19 @@
         <v>18231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11031</v>
+        <v>11647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27141</v>
+        <v>27893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1348920834329151</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08161868346702279</v>
+        <v>0.08617514239926989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.200813076743528</v>
+        <v>0.2063809575706644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -997,19 +997,19 @@
         <v>51702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39697</v>
+        <v>39896</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65779</v>
+        <v>66813</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.163743908304519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1257210649743953</v>
+        <v>0.1263524012509326</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2083258317777687</v>
+        <v>0.2116002111095152</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>89630</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75286</v>
+        <v>76613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103667</v>
+        <v>103293</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4962960339564163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4168730819717275</v>
+        <v>0.4242227311305954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5740212023504534</v>
+        <v>0.5719508000625584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1047,19 +1047,19 @@
         <v>70979</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58896</v>
+        <v>58295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83979</v>
+        <v>82163</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5251740892303625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4357672580062221</v>
+        <v>0.4313210955029969</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6213611174110102</v>
+        <v>0.6079236009773215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -1068,19 +1068,19 @@
         <v>160609</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143522</v>
+        <v>143580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178949</v>
+        <v>178231</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5086569951688739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4545411763935519</v>
+        <v>0.4547242298199512</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5667412815299796</v>
+        <v>0.5644661105479669</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>98094</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79496</v>
+        <v>80467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119716</v>
+        <v>118878</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1080547384787387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08756762614169956</v>
+        <v>0.08863795767485075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.131871583189999</v>
+        <v>0.130948569252941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1193,19 +1193,19 @@
         <v>71092</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55996</v>
+        <v>57393</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88079</v>
+        <v>87554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1247999583147437</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.098299390113377</v>
+        <v>0.1007504967673895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1546186922659822</v>
+        <v>0.1536980950605298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -1214,19 +1214,19 @@
         <v>169187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146268</v>
+        <v>145440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196733</v>
+        <v>195149</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1145109843233389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09899882505520614</v>
+        <v>0.0984387713661964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1331555331929773</v>
+        <v>0.1320832992381032</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>76119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59040</v>
+        <v>59210</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94885</v>
+        <v>94522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0838480976024101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06503475199654878</v>
+        <v>0.06522221594737639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1045191220004949</v>
+        <v>0.1041196109739556</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -1264,19 +1264,19 @@
         <v>63834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50006</v>
+        <v>49797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80101</v>
+        <v>83201</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1120589655110154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08778379611140949</v>
+        <v>0.08741715160143707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1406148378231532</v>
+        <v>0.1460556987512112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>129</v>
@@ -1285,19 +1285,19 @@
         <v>139953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>117184</v>
+        <v>117348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>163539</v>
+        <v>165072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0947250105657069</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07931374876362619</v>
+        <v>0.07942469128428579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1106888028095185</v>
+        <v>0.1117259251546571</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>195173</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>170285</v>
+        <v>169985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222676</v>
+        <v>221404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2149904312916579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1875756699156328</v>
+        <v>0.1872455436724438</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2452859692089757</v>
+        <v>0.2438848478789883</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -1335,19 +1335,19 @@
         <v>107980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88946</v>
+        <v>90170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128915</v>
+        <v>128156</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.189555649989424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1561422544306571</v>
+        <v>0.1582901083191305</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2263053921885615</v>
+        <v>0.2249732171106513</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>287</v>
@@ -1356,19 +1356,19 @@
         <v>303153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>271811</v>
+        <v>272946</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>335848</v>
+        <v>334232</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2051838594640503</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1839704920850341</v>
+        <v>0.1847390871820804</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2273128311550922</v>
+        <v>0.2262193766802888</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>196237</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>171361</v>
+        <v>170934</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218353</v>
+        <v>221693</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.21616260674078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1887614629117303</v>
+        <v>0.1882911554346593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.240524739119928</v>
+        <v>0.2442034450590327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1406,19 +1406,19 @@
         <v>129998</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110564</v>
+        <v>110776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150689</v>
+        <v>150739</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2282063182578716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1940902735771279</v>
+        <v>0.1944633421493789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2645285254073351</v>
+        <v>0.2646174561447833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -1427,19 +1427,19 @@
         <v>326234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>292534</v>
+        <v>296299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356832</v>
+        <v>361666</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2208061505817868</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1979966174759141</v>
+        <v>0.2005450190673763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2415154057268143</v>
+        <v>0.2447873815720647</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>342197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314078</v>
+        <v>311989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374660</v>
+        <v>374790</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3769441258864134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3459699447012693</v>
+        <v>0.3436680197698496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4127034797094213</v>
+        <v>0.4128464001603252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -1477,19 +1477,19 @@
         <v>196745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174952</v>
+        <v>173655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218958</v>
+        <v>219314</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3453791079269453</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3071217867271004</v>
+        <v>0.3048447399987395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3843722422531156</v>
+        <v>0.3849980518370792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>505</v>
@@ -1498,19 +1498,19 @@
         <v>538943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505280</v>
+        <v>497759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>578146</v>
+        <v>579353</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3647739950651171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3419898577913554</v>
+        <v>0.3368994952644104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3913083676086004</v>
+        <v>0.3921251990992801</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>23014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15423</v>
+        <v>14899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33965</v>
+        <v>34016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07321024889337203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0490631836553239</v>
+        <v>0.04739526291913969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1080472117287812</v>
+        <v>0.1082080884939977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1623,19 +1623,19 @@
         <v>32954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23464</v>
+        <v>22624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45046</v>
+        <v>45020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1420766125973201</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1011601771172434</v>
+        <v>0.09753924800680674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1942114843987728</v>
+        <v>0.1940972527585868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1644,19 +1644,19 @@
         <v>55968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42642</v>
+        <v>42627</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72273</v>
+        <v>72382</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1024492710681782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07805633642167291</v>
+        <v>0.0780295627222601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1322953178476832</v>
+        <v>0.1324957804163523</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>24568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15174</v>
+        <v>15878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37613</v>
+        <v>37654</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07815425348480735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04826999401901864</v>
+        <v>0.05051059861706528</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1196524373654267</v>
+        <v>0.1197810598798389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1694,19 +1694,19 @@
         <v>18768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11246</v>
+        <v>11392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30128</v>
+        <v>30238</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08091491963173275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04848446088569588</v>
+        <v>0.04911691554710362</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1298915652123048</v>
+        <v>0.1303683860212822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1715,19 +1715,19 @@
         <v>43336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31636</v>
+        <v>29763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59052</v>
+        <v>59277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07932636675383656</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05791050898385833</v>
+        <v>0.05448206565140336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1080949528514943</v>
+        <v>0.1085058599104989</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>68825</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53543</v>
+        <v>54793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85454</v>
+        <v>86493</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2189403261415679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.170328117398066</v>
+        <v>0.1743052721512292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2718414015399554</v>
+        <v>0.2751452721892376</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1765,19 +1765,19 @@
         <v>50476</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37517</v>
+        <v>38966</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64268</v>
+        <v>65065</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2176190984736453</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1617480179746765</v>
+        <v>0.1679977186100571</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2770840268279298</v>
+        <v>0.2805172568854087</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>108</v>
@@ -1786,19 +1786,19 @@
         <v>119300</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100185</v>
+        <v>99438</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141239</v>
+        <v>140142</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2183793642582539</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.183388673118633</v>
+        <v>0.1820216456712171</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.258537799771926</v>
+        <v>0.2565295816222235</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>69403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54960</v>
+        <v>54792</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86634</v>
+        <v>87321</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2207805117851572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1748354243789891</v>
+        <v>0.1743008040565583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2755948782270541</v>
+        <v>0.2777816242342601</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -1836,19 +1836,19 @@
         <v>38704</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27527</v>
+        <v>28317</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51641</v>
+        <v>52890</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1668668566476849</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1186801977391173</v>
+        <v>0.1220836416820541</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2226451672512324</v>
+        <v>0.2280270537370435</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1857,19 +1857,19 @@
         <v>108107</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90787</v>
+        <v>88801</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128856</v>
+        <v>128027</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1978900544805408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1661862427733723</v>
+        <v>0.1625498749584639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2358708313177441</v>
+        <v>0.234354582603878</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>128544</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110460</v>
+        <v>111530</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148864</v>
+        <v>147293</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4089146596950955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3513899669391904</v>
+        <v>0.3547928049619228</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4735568905414679</v>
+        <v>0.46856050854934</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1907,19 +1907,19 @@
         <v>91044</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75622</v>
+        <v>74769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107223</v>
+        <v>107922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3925225126496169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.326034411648775</v>
+        <v>0.32235684754278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4622790276494618</v>
+        <v>0.4652908253968282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>194</v>
@@ -1928,19 +1928,19 @@
         <v>219587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194203</v>
+        <v>195276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243495</v>
+        <v>243814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4019549434391905</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.355489922952453</v>
+        <v>0.3574537384184959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4457178349445866</v>
+        <v>0.4463017927448256</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>138589</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115921</v>
+        <v>114590</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161479</v>
+        <v>162408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09879659506125679</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08263706276936324</v>
+        <v>0.08168829335955848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1151141275083249</v>
+        <v>0.1157766025721653</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -2053,19 +2053,19 @@
         <v>122811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102841</v>
+        <v>101947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144745</v>
+        <v>144949</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1311031642681537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1097847865435299</v>
+        <v>0.1088310667354647</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1545188806355226</v>
+        <v>0.1547363879311648</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>243</v>
@@ -2074,19 +2074,19 @@
         <v>261400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>229384</v>
+        <v>229700</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294429</v>
+        <v>292497</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1117322211419043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09804749830813983</v>
+        <v>0.09818244063469903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1258501615544204</v>
+        <v>0.1250244127474642</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>112006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>91513</v>
+        <v>90019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>132549</v>
+        <v>134181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07984614043430584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06523746536959021</v>
+        <v>0.06417238894620529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09449070715323242</v>
+        <v>0.09565452061253348</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>83</v>
@@ -2124,19 +2124,19 @@
         <v>91903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72693</v>
+        <v>75644</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112008</v>
+        <v>113297</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09810842918465684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07760188262154584</v>
+        <v>0.08075193404503685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1195709559258614</v>
+        <v>0.1209473091312226</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>185</v>
@@ -2145,19 +2145,19 @@
         <v>203909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>175203</v>
+        <v>174716</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>232901</v>
+        <v>233122</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08715840368140185</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0748884868896359</v>
+        <v>0.0746803264297977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09955069746725065</v>
+        <v>0.09964517784012267</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>292694</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>262731</v>
+        <v>261837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>325994</v>
+        <v>325663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2086542738329363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.187294400099039</v>
+        <v>0.1866573245308675</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2323929110995335</v>
+        <v>0.2321567973698201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -2195,19 +2195,19 @@
         <v>176334</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>152390</v>
+        <v>154249</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201958</v>
+        <v>199950</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1882405932283696</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1626795366740826</v>
+        <v>0.1646639995078465</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2155950770300536</v>
+        <v>0.2134514077600415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>436</v>
@@ -2216,19 +2216,19 @@
         <v>469028</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>429089</v>
+        <v>425125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>511995</v>
+        <v>506791</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2004805882416459</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1834090473282473</v>
+        <v>0.1817149141833329</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2188463071175915</v>
+        <v>0.2166217648472358</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>299111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>268558</v>
+        <v>268159</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>332432</v>
+        <v>330113</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2132287256255276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1914486213011239</v>
+        <v>0.1911638108359006</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2369822151240865</v>
+        <v>0.2353296834815528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>176</v>
@@ -2266,19 +2266,19 @@
         <v>186933</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163300</v>
+        <v>162757</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>213401</v>
+        <v>210814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1995549045455263</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1743259240539995</v>
+        <v>0.1737466840112434</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2278102868358272</v>
+        <v>0.2250486111402475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>465</v>
@@ -2287,19 +2287,19 @@
         <v>486044</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>449660</v>
+        <v>447154</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>528555</v>
+        <v>526944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2077536955952014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1922017003466603</v>
+        <v>0.1911307440900578</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2259244431203607</v>
+        <v>0.2252359325893913</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>560371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>523767</v>
+        <v>525473</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>596833</v>
+        <v>602473</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3994742650459734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3733808740713246</v>
+        <v>0.3745968686920085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4254673658428197</v>
+        <v>0.4294878280957621</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -2337,19 +2337,19 @@
         <v>358768</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>327912</v>
+        <v>329306</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>389974</v>
+        <v>390510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3829929087732936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3500534161646736</v>
+        <v>0.3515413888995167</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4163061231591413</v>
+        <v>0.4168782566271481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>853</v>
@@ -2358,19 +2358,19 @@
         <v>919139</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>868696</v>
+        <v>872108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>967950</v>
+        <v>965892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3928750913398466</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3713140243642578</v>
+        <v>0.3727721385076038</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.413739081278268</v>
+        <v>0.4128591161100561</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>22958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14632</v>
+        <v>14809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32841</v>
+        <v>33158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1624790956337941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1035560284779568</v>
+        <v>0.1048055444170274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2324190900071158</v>
+        <v>0.23466748739253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2722,19 +2722,19 @@
         <v>14934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8740</v>
+        <v>8810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21857</v>
+        <v>22360</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2160396034404314</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1264302084082592</v>
+        <v>0.1274377435801936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3161842302224212</v>
+        <v>0.3234559815284174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -2743,19 +2743,19 @@
         <v>37893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27374</v>
+        <v>27571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50109</v>
+        <v>49882</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1800744830729428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1300895778911597</v>
+        <v>0.1310255581878902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2381294349690072</v>
+        <v>0.2370497317999918</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>20692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12867</v>
+        <v>12326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30203</v>
+        <v>30722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1464431349973329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09106554033379832</v>
+        <v>0.08723416448413436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2137520954513925</v>
+        <v>0.2174278523794263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2793,19 +2793,19 @@
         <v>9101</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4667</v>
+        <v>4750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15256</v>
+        <v>15747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.131648169729537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06751311518134259</v>
+        <v>0.06871653276804468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2206930017096037</v>
+        <v>0.2277958917959908</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -2814,19 +2814,19 @@
         <v>29793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21025</v>
+        <v>20305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42601</v>
+        <v>42478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1415827788002739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09991582775439344</v>
+        <v>0.09649630907854893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2024482918783017</v>
+        <v>0.2018648031737731</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>29429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20454</v>
+        <v>20261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39737</v>
+        <v>40494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2082730086796187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1447596388831459</v>
+        <v>0.1433901064479068</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2812283654828861</v>
+        <v>0.2865872541412381</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -2864,19 +2864,19 @@
         <v>17760</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11475</v>
+        <v>11641</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25609</v>
+        <v>25703</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2569133728373893</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1659965516532681</v>
+        <v>0.1684024156347762</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.370461018175861</v>
+        <v>0.371824379445118</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -2885,19 +2885,19 @@
         <v>47189</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34225</v>
+        <v>35522</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59292</v>
+        <v>59299</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2242520590580618</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.162647123162568</v>
+        <v>0.1688084289326458</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2817709437674591</v>
+        <v>0.2818029333536669</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>35610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26093</v>
+        <v>25768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47099</v>
+        <v>47679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2520164902215138</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1846623931328678</v>
+        <v>0.1823628016974046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.333325688886861</v>
+        <v>0.3374309478208853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -2935,19 +2935,19 @@
         <v>18970</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12134</v>
+        <v>12475</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27147</v>
+        <v>26878</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2744202575663468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1755247507681979</v>
+        <v>0.1804635775411622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.392702956819923</v>
+        <v>0.3888091672193645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2956,19 +2956,19 @@
         <v>54580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41309</v>
+        <v>42506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68270</v>
+        <v>68590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.259376445955168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1963114004418972</v>
+        <v>0.201998097911735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.324433927827479</v>
+        <v>0.3259576846575659</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>32610</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23250</v>
+        <v>23073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43136</v>
+        <v>42892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2307882704677404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1645463582845378</v>
+        <v>0.1632905406097241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3052803979907728</v>
+        <v>0.3035551084047755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3006,19 +3006,19 @@
         <v>8363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4047</v>
+        <v>3846</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14587</v>
+        <v>14638</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1209785964262955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05854830370479443</v>
+        <v>0.05564207817051624</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2110199229590732</v>
+        <v>0.2117478417426213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -3027,19 +3027,19 @@
         <v>40973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29834</v>
+        <v>30658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54122</v>
+        <v>53635</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1947142331135535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.141777307816995</v>
+        <v>0.1456932044067572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.257202670064117</v>
+        <v>0.254888352212498</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>113069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94699</v>
+        <v>93308</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134203</v>
+        <v>136405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.122475484729163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1025771342977666</v>
+        <v>0.1010700418638051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1453674016919956</v>
+        <v>0.1477519746574883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -3152,19 +3152,19 @@
         <v>90683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75141</v>
+        <v>73364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111049</v>
+        <v>109921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.139396542881902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1155044071873183</v>
+        <v>0.1127733728289436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1707022203826667</v>
+        <v>0.1689675962099393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -3173,19 +3173,19 @@
         <v>203753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175882</v>
+        <v>177495</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230075</v>
+        <v>232916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1294701920002069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1117601740175724</v>
+        <v>0.1127849199611561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461956107847262</v>
+        <v>0.1480007926478874</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>155909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132905</v>
+        <v>135525</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178217</v>
+        <v>179914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1688784170894056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.143960731278144</v>
+        <v>0.1467989571181026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.193042947111809</v>
+        <v>0.1948809479673932</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -3223,19 +3223,19 @@
         <v>127591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107570</v>
+        <v>109164</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147141</v>
+        <v>148389</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1961300075324479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1653538978327173</v>
+        <v>0.167803882333182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2261822188344389</v>
+        <v>0.2280998885045204</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>274</v>
@@ -3244,19 +3244,19 @@
         <v>283500</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>254224</v>
+        <v>254148</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314377</v>
+        <v>319595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.180143486690777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1615409403552533</v>
+        <v>0.1614923669959324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.199763902055803</v>
+        <v>0.2030791167252273</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>242787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>216679</v>
+        <v>215069</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>271331</v>
+        <v>269921</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2629838325747737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2347037644068892</v>
+        <v>0.2329598625680039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2939020916581858</v>
+        <v>0.2923749854694485</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>166</v>
@@ -3294,19 +3294,19 @@
         <v>168900</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>147050</v>
+        <v>146052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190449</v>
+        <v>192350</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2596294958423086</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2260415887126137</v>
+        <v>0.2245083140793383</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2927535796666795</v>
+        <v>0.2956756280621988</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>397</v>
@@ -3315,19 +3315,19 @@
         <v>411687</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378829</v>
+        <v>373575</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>450484</v>
+        <v>445606</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2615972405945136</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2407183650922392</v>
+        <v>0.2373798939205611</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2862497824303018</v>
+        <v>0.2831502193683802</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>197188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173722</v>
+        <v>173946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223451</v>
+        <v>224143</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2135920157389407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1881731791782084</v>
+        <v>0.1884157706980051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2420389666460445</v>
+        <v>0.2427888126965897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -3365,19 +3365,19 @@
         <v>128684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108728</v>
+        <v>109292</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148212</v>
+        <v>152044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1978095291895162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1671340794684599</v>
+        <v>0.1680014350874737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2278274124198927</v>
+        <v>0.2337181607067446</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>308</v>
@@ -3386,19 +3386,19 @@
         <v>325872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293387</v>
+        <v>295925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>359815</v>
+        <v>357603</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2070679631397513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1864259582290469</v>
+        <v>0.1880386133874721</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2286364509446614</v>
+        <v>0.2272308469703831</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>214247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190971</v>
+        <v>188892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>243529</v>
+        <v>240657</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.232070249867717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2068576559228194</v>
+        <v>0.2046055021544839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2637877788376197</v>
+        <v>0.2606768108317916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -3436,19 +3436,19 @@
         <v>134685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116053</v>
+        <v>115108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157106</v>
+        <v>159157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2070344245538253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1783948036745677</v>
+        <v>0.1769410938287807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2414998298821416</v>
+        <v>0.2446521517273559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>327</v>
@@ -3457,19 +3457,19 @@
         <v>348933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>314090</v>
+        <v>314713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>381166</v>
+        <v>383723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2217211175747512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1995810258073838</v>
+        <v>0.1999770176302144</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2422032848488213</v>
+        <v>0.2438280411749195</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>45425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33804</v>
+        <v>32615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59945</v>
+        <v>58592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1303685913180373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09701714493451252</v>
+        <v>0.09360224715794234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1720395950350238</v>
+        <v>0.1681575918780921</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -3582,19 +3582,19 @@
         <v>50354</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37248</v>
+        <v>39473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64422</v>
+        <v>65408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.163247327634772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1207574539415331</v>
+        <v>0.127971372941113</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2088565372336974</v>
+        <v>0.2120521794762866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3603,19 +3603,19 @@
         <v>95780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77585</v>
+        <v>77293</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116603</v>
+        <v>115709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1458072975509495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1181100855503638</v>
+        <v>0.1176651349200653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.177507778819959</v>
+        <v>0.1761469296681509</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>48291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36438</v>
+        <v>35574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63896</v>
+        <v>62778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1385914142797392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.104576118282675</v>
+        <v>0.1020969921731641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1833776181431779</v>
+        <v>0.1801707291794696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3653,19 +3653,19 @@
         <v>52130</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39527</v>
+        <v>39355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66451</v>
+        <v>66159</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1690059963081482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1281467545643941</v>
+        <v>0.1275879272040351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2154328552610627</v>
+        <v>0.2144876392081531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -3674,19 +3674,19 @@
         <v>100421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82365</v>
+        <v>82301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120539</v>
+        <v>118986</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1528730397233065</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1253862656460872</v>
+        <v>0.1252890352167194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.183499101122703</v>
+        <v>0.1811347169832049</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>88785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71941</v>
+        <v>73273</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107311</v>
+        <v>105993</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2548096005081</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2064657774060142</v>
+        <v>0.2102911250359824</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3079774016652929</v>
+        <v>0.304195029192107</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -3724,19 +3724,19 @@
         <v>75011</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60585</v>
+        <v>61244</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91349</v>
+        <v>89919</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2431849385888946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1964172403698415</v>
+        <v>0.1985514466507871</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2961527530864499</v>
+        <v>0.291516077666588</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>156</v>
@@ -3745,19 +3745,19 @@
         <v>163796</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141926</v>
+        <v>140989</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>187831</v>
+        <v>185889</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2493510652803885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2160569265039277</v>
+        <v>0.2146308221058361</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2859387551173123</v>
+        <v>0.2829826549970014</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>63765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48466</v>
+        <v>50469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80253</v>
+        <v>81697</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1830020045679782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.139096173024201</v>
+        <v>0.1448444943103133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2303223195559193</v>
+        <v>0.2344670072308284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -3795,19 +3795,19 @@
         <v>40950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30337</v>
+        <v>30666</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53290</v>
+        <v>53478</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1327583934374676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09835233812305814</v>
+        <v>0.09941933675709984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1727639670354897</v>
+        <v>0.1733735443949241</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -3816,19 +3816,19 @@
         <v>104715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86922</v>
+        <v>85327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125680</v>
+        <v>124325</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1594093596180014</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.132322912593585</v>
+        <v>0.1298959023127458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1913262137225746</v>
+        <v>0.189262304623996</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>102172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85489</v>
+        <v>86146</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121103</v>
+        <v>118776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2932283893261453</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2453491123208318</v>
+        <v>0.2472362365237771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3475592893231592</v>
+        <v>0.3408800499904023</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -3866,19 +3866,19 @@
         <v>90008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>73469</v>
+        <v>74524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106663</v>
+        <v>107272</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2918033440307176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2381863866381324</v>
+        <v>0.2416053546431425</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.34579968256746</v>
+        <v>0.3477753560629654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -3887,19 +3887,19 @@
         <v>192180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>168770</v>
+        <v>169984</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>217709</v>
+        <v>218825</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2925592378273542</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2569225161007008</v>
+        <v>0.258770664317821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3314231334531685</v>
+        <v>0.3331221720805327</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>181453</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155554</v>
+        <v>157682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>209052</v>
+        <v>210434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1284224697972659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1100926581202669</v>
+        <v>0.1115985523575959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1479556835438317</v>
+        <v>0.1489336343611254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -4012,19 +4012,19 @@
         <v>155972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132253</v>
+        <v>134884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182190</v>
+        <v>181430</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1517054121346433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1286353095087409</v>
+        <v>0.1311938994263823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1772063153215746</v>
+        <v>0.1764672380934513</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>319</v>
@@ -4033,19 +4033,19 @@
         <v>337425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>301466</v>
+        <v>300393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>373551</v>
+        <v>374574</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1382287603030975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1234978976793183</v>
+        <v>0.1230582179480216</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1530281939361335</v>
+        <v>0.1534470041963595</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>224892</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195918</v>
+        <v>198879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254407</v>
+        <v>255376</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1591658726358949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1386600177320959</v>
+        <v>0.140755508486996</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1800556507288622</v>
+        <v>0.180740787632792</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>187</v>
@@ -4083,19 +4083,19 @@
         <v>188822</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166374</v>
+        <v>165366</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>212658</v>
+        <v>213347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1836568074322006</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1618225926293509</v>
+        <v>0.1608418482628768</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2068407472982738</v>
+        <v>0.2075110796957528</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>396</v>
@@ -4104,19 +4104,19 @@
         <v>413714</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>376013</v>
+        <v>375477</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>450568</v>
+        <v>448926</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1694809444121284</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.154036758453438</v>
+        <v>0.1538168405311838</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1845785292681031</v>
+        <v>0.1839060646522122</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>361001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>328346</v>
+        <v>327528</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>396416</v>
+        <v>394259</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.255496747064565</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2323851326066769</v>
+        <v>0.2318064023650681</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.280561202892158</v>
+        <v>0.2790351481161983</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>260</v>
@@ -4154,19 +4154,19 @@
         <v>261671</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>234450</v>
+        <v>235207</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>289517</v>
+        <v>290641</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2545132523115122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2280364740391888</v>
+        <v>0.2287724869731788</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2815974335486626</v>
+        <v>0.2826907846419918</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>599</v>
@@ -4175,19 +4175,19 @@
         <v>622673</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>578798</v>
+        <v>579152</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>667271</v>
+        <v>659751</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2550825195532975</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2371090141023286</v>
+        <v>0.2372540114405502</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.273352827061396</v>
+        <v>0.2702721445283438</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>296563</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>267005</v>
+        <v>268704</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>329164</v>
+        <v>330099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2098909390462455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1889713036717807</v>
+        <v>0.1901737895155442</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2329642412363855</v>
+        <v>0.2336260127302402</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -4225,19 +4225,19 @@
         <v>188604</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>164697</v>
+        <v>165040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214423</v>
+        <v>218526</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1834442875865485</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.160191523070069</v>
+        <v>0.1605247640699902</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2085577388078287</v>
+        <v>0.2125478682943106</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>460</v>
@@ -4246,19 +4246,19 @@
         <v>485167</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>449759</v>
+        <v>443993</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>528107</v>
+        <v>527169</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1987521601341006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.184247067656471</v>
+        <v>0.1818849793840825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2163431961668843</v>
+        <v>0.2159587013239256</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>349030</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>316140</v>
+        <v>317616</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>386669</v>
+        <v>381649</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2470239714560287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2237463823260957</v>
+        <v>0.2247909809327784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2736633780079715</v>
+        <v>0.2701102492709312</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>218</v>
@@ -4296,19 +4296,19 @@
         <v>233056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>208054</v>
+        <v>205654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>259627</v>
+        <v>259371</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2266802405350954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2023624718834835</v>
+        <v>0.2000284244436943</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2525251119006989</v>
+        <v>0.2522760508733453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>544</v>
@@ -4317,19 +4317,19 @@
         <v>582085</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>542027</v>
+        <v>540546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>625398</v>
+        <v>627545</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.238455615597376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2220453271686401</v>
+        <v>0.2214389539736836</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2561990101705613</v>
+        <v>0.2570784273916567</v>
       </c>
     </row>
     <row r="27">
